--- a/StreamRes/ExcelTable/Excel/cn/StaticScene.xlsx
+++ b/StreamRes/ExcelTable/Excel/cn/StaticScene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12080"/>
+    <workbookView windowHeight="17930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>10001</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="5" ht="28" spans="1:5">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>10002</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>10003</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>10004</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>

--- a/StreamRes/ExcelTable/Excel/cn/StaticScene.xlsx
+++ b/StreamRes/ExcelTable/Excel/cn/StaticScene.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Id</t>
   </si>
@@ -37,9 +37,6 @@
     <t>string</t>
   </si>
   <si>
-    <t xml:space="preserve">string </t>
-  </si>
-  <si>
     <t>编号</t>
   </si>
   <si>
@@ -55,16 +52,31 @@
     <t>加载场景</t>
   </si>
   <si>
+    <t>10001</t>
+  </si>
+  <si>
     <t>小芳房间</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
     <t>客厅</t>
   </si>
   <si>
     <t>10001|10002|10003|10004</t>
   </si>
   <si>
+    <t>10003</t>
+  </si>
+  <si>
     <t>老李房间</t>
+  </si>
+  <si>
+    <t>10004</t>
   </si>
   <si>
     <t>测试房间1</t>
@@ -85,35 +97,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,7 +128,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,7 +135,6 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,14 +142,12 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,7 +155,6 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,7 +162,6 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,7 +169,6 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,7 +176,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,7 +183,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,7 +190,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,14 +197,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,21 +210,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -542,166 +534,311 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="55">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="8" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="12" applyFill="1" borderId="5" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="12" applyFill="1" borderId="1" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="13" applyFill="1" borderId="6" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="33" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1026,139 +1163,139 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="2" customWidth="1"/>
-    <col min="3" max="4" width="39.2" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.8333333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6333333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.3833333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.6333333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.5" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="13.75" customWidth="1" style="50"/>
+    <col min="2" max="2" width="23.5" customWidth="1" style="51"/>
+    <col min="3" max="4" width="39.2" customWidth="1" style="51"/>
+    <col min="5" max="5" width="17.8333333333333" customWidth="1" style="51"/>
+    <col min="6" max="6" width="13.6333333333333" customWidth="1" style="51"/>
+    <col min="7" max="7" width="16.3833333333333" customWidth="1" style="51"/>
+    <col min="8" max="8" width="16.6333333333333" customWidth="1" style="51"/>
+    <col min="9" max="9" width="21.5" customWidth="1" style="51"/>
+    <col min="10" max="16384" width="9" customWidth="1" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+    <row r="1">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="51" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+    <row r="2">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="52" t="s">
         <v>7</v>
       </c>
+      <c r="B3" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
+    <row r="4">
+      <c r="A4" s="50" t="s">
         <v>12</v>
       </c>
+      <c r="B4" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2">
-        <v>10001</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10002</v>
+    <row r="5" ht="28">
+      <c r="A5" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" ht="28" spans="1:5">
-      <c r="A5" s="1">
-        <v>10002</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="6">
+      <c r="A6" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2">
-        <v>10002</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="E6" s="51" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>10003</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2">
-        <v>10003</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>10004</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2">
-        <v>10004</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10004</v>
+    <row r="7">
+      <c r="A7" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/cn/StaticScene.xlsx
+++ b/StreamRes/ExcelTable/Excel/cn/StaticScene.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>测试房间1</t>
+  </si>
+  <si>
+    <t>20001</t>
+  </si>
+  <si>
+    <t>测试房间2</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1166,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -1298,6 +1304,23 @@
         <v>20</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
